--- a/Input/al_sagr_dubai/rateSheet.xlsx
+++ b/Input/al_sagr_dubai/rateSheet.xlsx
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Nextcare RN</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE, GCC, ME, SEA  Including Indian Sub-continent</t>
+    <t xml:space="preserve">UAE, GCC, ME, SEA Including Indian Sub-continent</t>
   </si>
   <si>
     <t xml:space="preserve">Consultations 20% up to AED 50, Pharma NIL co-pay and Diagnostics 15% co-pay in Al Zahra Hospital</t>
@@ -236,8 +236,8 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -295,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,6 +332,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -350,13 +354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C466" activeCellId="0" sqref="C466"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,7 +409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -437,7 +441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -469,7 +473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -501,7 +505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -533,7 +537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -565,7 +569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -597,7 +601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -629,7 +633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -661,7 +665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -693,7 +697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -725,7 +729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -757,7 +761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -789,7 +793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -821,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -853,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -885,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -917,7 +921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -949,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -981,7 +985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -1653,7 +1657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>24</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>24</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>24</v>
       </c>
@@ -2005,7 +2009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>28</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>28</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>28</v>
       </c>
@@ -2197,7 +2201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>28</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>31</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>31</v>
       </c>
@@ -2453,7 +2457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>31</v>
       </c>
@@ -2485,7 +2489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>31</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>31</v>
       </c>
@@ -2549,7 +2553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>31</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>31</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>31</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>33</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>33</v>
       </c>
@@ -2805,7 +2809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>33</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>33</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>33</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>33</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>34</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>34</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>34</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>34</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>34</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>34</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>34</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>34</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>34</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>34</v>
       </c>
@@ -3285,14 +3289,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D92" s="0" t="s">
@@ -3317,14 +3321,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D93" s="0" t="s">
@@ -3349,14 +3353,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D94" s="0" t="s">
@@ -3381,14 +3385,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D95" s="0" t="s">
@@ -3413,14 +3417,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D96" s="0" t="s">
@@ -3445,14 +3449,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D97" s="0" t="s">
@@ -3477,14 +3481,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D98" s="0" t="s">
@@ -3509,14 +3513,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D99" s="0" t="s">
@@ -3541,14 +3545,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D100" s="0" t="s">
@@ -3573,14 +3577,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="0" t="s">
@@ -3605,14 +3609,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D102" s="0" t="s">
@@ -3637,14 +3641,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D103" s="0" t="s">
@@ -3669,14 +3673,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D104" s="0" t="s">
@@ -3701,14 +3705,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D105" s="0" t="s">
@@ -3733,14 +3737,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D106" s="0" t="s">
@@ -3765,14 +3769,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D107" s="0" t="s">
@@ -3797,14 +3801,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D108" s="0" t="s">
@@ -3829,14 +3833,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D109" s="0" t="s">
@@ -3861,14 +3865,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D110" s="0" t="s">
@@ -3893,14 +3897,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D111" s="0" t="s">
@@ -3925,14 +3929,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D112" s="0" t="s">
@@ -3957,14 +3961,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D113" s="0" t="s">
@@ -3989,14 +3993,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D114" s="0" t="s">
@@ -4021,14 +4025,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D115" s="0" t="s">
@@ -4053,14 +4057,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D116" s="0" t="s">
@@ -4085,14 +4089,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D117" s="0" t="s">
@@ -4117,14 +4121,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D118" s="0" t="s">
@@ -4149,14 +4153,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D119" s="0" t="s">
@@ -4181,14 +4185,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D120" s="0" t="s">
@@ -4213,14 +4217,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D121" s="0" t="s">
@@ -4245,14 +4249,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D122" s="0" t="s">
@@ -4277,14 +4281,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D123" s="0" t="s">
@@ -4309,14 +4313,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D124" s="0" t="s">
@@ -4341,14 +4345,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D125" s="0" t="s">
@@ -4373,14 +4377,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D126" s="0" t="s">
@@ -4405,14 +4409,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D127" s="0" t="s">
@@ -4437,14 +4441,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D128" s="0" t="s">
@@ -4469,14 +4473,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D129" s="0" t="s">
@@ -4501,14 +4505,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D130" s="0" t="s">
@@ -4533,14 +4537,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D131" s="0" t="s">
@@ -4565,14 +4569,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D132" s="0" t="s">
@@ -4597,14 +4601,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D133" s="0" t="s">
@@ -4629,14 +4633,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D134" s="0" t="s">
@@ -4661,14 +4665,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D135" s="0" t="s">
@@ -4693,14 +4697,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D136" s="0" t="s">
@@ -4725,14 +4729,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D137" s="0" t="s">
@@ -4757,14 +4761,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D138" s="0" t="s">
@@ -4789,14 +4793,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D139" s="0" t="s">
@@ -4821,14 +4825,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D140" s="0" t="s">
@@ -4853,14 +4857,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D141" s="0" t="s">
@@ -4885,14 +4889,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="0" t="s">
@@ -4917,14 +4921,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D143" s="0" t="s">
@@ -4949,14 +4953,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D144" s="0" t="s">
@@ -4981,14 +4985,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D145" s="0" t="s">
@@ -5013,14 +5017,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D146" s="0" t="s">
@@ -5045,14 +5049,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D147" s="0" t="s">
@@ -5077,14 +5081,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D148" s="0" t="s">
@@ -5109,14 +5113,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D149" s="0" t="s">
@@ -5141,14 +5145,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="0" t="s">
@@ -5173,14 +5177,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D151" s="0" t="s">
@@ -5205,14 +5209,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D152" s="0" t="s">
@@ -5237,14 +5241,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D153" s="0" t="s">
@@ -5269,14 +5273,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D154" s="0" t="s">
@@ -5301,14 +5305,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D155" s="0" t="s">
@@ -5333,14 +5337,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D156" s="0" t="s">
@@ -5365,14 +5369,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D157" s="0" t="s">
@@ -5397,14 +5401,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D158" s="0" t="s">
@@ -5429,14 +5433,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D159" s="0" t="s">
@@ -5461,14 +5465,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D160" s="0" t="s">
@@ -5493,14 +5497,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D161" s="0" t="s">
@@ -5532,7 +5536,7 @@
       <c r="B162" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D162" s="0" t="s">
@@ -5564,7 +5568,7 @@
       <c r="B163" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D163" s="0" t="s">
@@ -5596,7 +5600,7 @@
       <c r="B164" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D164" s="0" t="s">
@@ -5628,7 +5632,7 @@
       <c r="B165" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D165" s="0" t="s">
@@ -5660,7 +5664,7 @@
       <c r="B166" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D166" s="0" t="s">
@@ -5692,7 +5696,7 @@
       <c r="B167" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D167" s="0" t="s">
@@ -5724,7 +5728,7 @@
       <c r="B168" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D168" s="0" t="s">
@@ -5756,7 +5760,7 @@
       <c r="B169" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D169" s="0" t="s">
@@ -5788,7 +5792,7 @@
       <c r="B170" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D170" s="0" t="s">
@@ -5820,7 +5824,7 @@
       <c r="B171" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D171" s="0" t="s">
@@ -5845,7 +5849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
         <v>11</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
         <v>11</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
         <v>11</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
         <v>11</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>11</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
         <v>11</v>
       </c>
@@ -6055,7 +6059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
         <v>11</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
         <v>11</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
         <v>11</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
         <v>18</v>
       </c>
@@ -6230,7 +6234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
         <v>18</v>
       </c>
@@ -6265,7 +6269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
         <v>18</v>
       </c>
@@ -6300,7 +6304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
         <v>18</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
         <v>18</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
         <v>18</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
         <v>18</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>18</v>
       </c>
@@ -6475,7 +6479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
         <v>18</v>
       </c>
@@ -6510,7 +6514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>18</v>
       </c>
@@ -6545,7 +6549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>20</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
         <v>20</v>
       </c>
@@ -6615,7 +6619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
         <v>20</v>
       </c>
@@ -6650,7 +6654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
         <v>20</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
         <v>20</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
         <v>20</v>
       </c>
@@ -6755,7 +6759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
         <v>20</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
         <v>20</v>
       </c>
@@ -6825,7 +6829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
         <v>20</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
         <v>20</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
         <v>22</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
         <v>22</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
         <v>22</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
         <v>22</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
         <v>22</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
         <v>22</v>
       </c>
@@ -7105,7 +7109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
         <v>22</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
         <v>22</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
         <v>22</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
         <v>22</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
         <v>24</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
         <v>24</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
         <v>24</v>
       </c>
@@ -7350,7 +7354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
         <v>24</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
         <v>24</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
         <v>24</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
         <v>24</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
         <v>24</v>
       </c>
@@ -7525,7 +7529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
         <v>24</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
         <v>24</v>
       </c>
@@ -7595,7 +7599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
         <v>28</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
         <v>28</v>
       </c>
@@ -7665,7 +7669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
         <v>28</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
         <v>28</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
         <v>28</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
         <v>28</v>
       </c>
@@ -7805,7 +7809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>28</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
         <v>28</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
         <v>28</v>
       </c>
@@ -7910,7 +7914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
         <v>28</v>
       </c>
@@ -7945,7 +7949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
         <v>31</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
         <v>31</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
         <v>31</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
         <v>31</v>
       </c>
@@ -8085,7 +8089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
         <v>31</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
         <v>31</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
         <v>31</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
         <v>31</v>
       </c>
@@ -8225,7 +8229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
         <v>31</v>
       </c>
@@ -8260,7 +8264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
         <v>31</v>
       </c>
@@ -8295,7 +8299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
         <v>33</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
         <v>33</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
         <v>33</v>
       </c>
@@ -8400,7 +8404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
         <v>33</v>
       </c>
@@ -8435,7 +8439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
         <v>33</v>
       </c>
@@ -8470,7 +8474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
         <v>33</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
         <v>33</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
         <v>33</v>
       </c>
@@ -8575,7 +8579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
         <v>33</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
         <v>33</v>
       </c>
@@ -8645,7 +8649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>34</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>34</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>34</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>34</v>
       </c>
@@ -8785,7 +8789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>34</v>
       </c>
@@ -8820,7 +8824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>34</v>
       </c>
@@ -8855,7 +8859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>34</v>
       </c>
@@ -8890,7 +8894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>34</v>
       </c>
@@ -8925,7 +8929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>34</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>34</v>
       </c>
@@ -8995,14 +8999,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C262" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D262" s="0" t="s">
@@ -9030,14 +9034,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D263" s="0" t="s">
@@ -9065,14 +9069,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D264" s="0" t="s">
@@ -9100,14 +9104,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D265" s="0" t="s">
@@ -9135,14 +9139,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D266" s="0" t="s">
@@ -9170,14 +9174,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D267" s="0" t="s">
@@ -9205,14 +9209,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D268" s="0" t="s">
@@ -9240,14 +9244,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C269" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D269" s="0" t="s">
@@ -9275,14 +9279,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D270" s="0" t="s">
@@ -9310,14 +9314,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D271" s="0" t="s">
@@ -9345,14 +9349,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D272" s="0" t="s">
@@ -9380,14 +9384,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C273" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D273" s="0" t="s">
@@ -9415,14 +9419,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C274" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D274" s="0" t="s">
@@ -9450,14 +9454,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D275" s="0" t="s">
@@ -9485,14 +9489,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C276" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D276" s="0" t="s">
@@ -9520,14 +9524,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D277" s="0" t="s">
@@ -9555,14 +9559,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D278" s="0" t="s">
@@ -9590,14 +9594,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D279" s="0" t="s">
@@ -9625,14 +9629,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D280" s="0" t="s">
@@ -9660,14 +9664,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C281" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D281" s="0" t="s">
@@ -9695,14 +9699,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="C282" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D282" s="0" t="s">
@@ -9730,14 +9734,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D283" s="0" t="s">
@@ -9765,14 +9769,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C284" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D284" s="0" t="s">
@@ -9800,14 +9804,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D285" s="0" t="s">
@@ -9835,14 +9839,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D286" s="0" t="s">
@@ -9870,14 +9874,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D287" s="0" t="s">
@@ -9905,14 +9909,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D288" s="0" t="s">
@@ -9940,14 +9944,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D289" s="0" t="s">
@@ -9975,14 +9979,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D290" s="0" t="s">
@@ -10010,14 +10014,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D291" s="0" t="s">
@@ -10045,14 +10049,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D292" s="0" t="s">
@@ -10080,14 +10084,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D293" s="0" t="s">
@@ -10115,14 +10119,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D294" s="0" t="s">
@@ -10150,14 +10154,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D295" s="0" t="s">
@@ -10185,14 +10189,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D296" s="0" t="s">
@@ -10220,14 +10224,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D297" s="0" t="s">
@@ -10255,14 +10259,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C298" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D298" s="0" t="s">
@@ -10290,14 +10294,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C299" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D299" s="0" t="s">
@@ -10325,14 +10329,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C300" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D300" s="0" t="s">
@@ -10360,14 +10364,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C301" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D301" s="0" t="s">
@@ -10395,14 +10399,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="C302" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D302" s="0" t="s">
@@ -10430,14 +10434,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C303" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D303" s="0" t="s">
@@ -10465,14 +10469,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C304" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D304" s="0" t="s">
@@ -10500,14 +10504,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C305" s="4" t="s">
+      <c r="C305" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D305" s="0" t="s">
@@ -10535,14 +10539,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C306" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D306" s="0" t="s">
@@ -10570,14 +10574,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C307" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D307" s="0" t="s">
@@ -10605,14 +10609,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C308" s="4" t="s">
+      <c r="C308" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D308" s="0" t="s">
@@ -10640,14 +10644,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="C309" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D309" s="0" t="s">
@@ -10675,14 +10679,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="C310" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D310" s="0" t="s">
@@ -10710,14 +10714,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C311" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D311" s="0" t="s">
@@ -10745,14 +10749,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="C312" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D312" s="0" t="s">
@@ -10780,14 +10784,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="C313" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D313" s="0" t="s">
@@ -10815,14 +10819,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C314" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D314" s="0" t="s">
@@ -10850,14 +10854,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C315" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D315" s="0" t="s">
@@ -10885,14 +10889,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="C316" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D316" s="0" t="s">
@@ -10920,14 +10924,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C317" s="4" t="s">
+      <c r="C317" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D317" s="0" t="s">
@@ -10955,14 +10959,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C318" s="4" t="s">
+      <c r="C318" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D318" s="0" t="s">
@@ -10990,14 +10994,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C319" s="4" t="s">
+      <c r="C319" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D319" s="0" t="s">
@@ -11025,14 +11029,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C320" s="4" t="s">
+      <c r="C320" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D320" s="0" t="s">
@@ -11060,14 +11064,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="C321" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D321" s="0" t="s">
@@ -11095,14 +11099,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="C322" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D322" s="0" t="s">
@@ -11130,14 +11134,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C323" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D323" s="0" t="s">
@@ -11165,14 +11169,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="C324" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D324" s="0" t="s">
@@ -11200,14 +11204,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="C325" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D325" s="0" t="s">
@@ -11235,14 +11239,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="C326" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D326" s="0" t="s">
@@ -11270,14 +11274,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C327" s="4" t="s">
+      <c r="C327" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D327" s="0" t="s">
@@ -11305,14 +11309,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="C328" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D328" s="0" t="s">
@@ -11340,14 +11344,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="C329" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D329" s="0" t="s">
@@ -11375,14 +11379,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C330" s="4" t="s">
+      <c r="C330" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D330" s="0" t="s">
@@ -11410,14 +11414,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C331" s="4" t="s">
+      <c r="C331" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D331" s="0" t="s">
@@ -11452,7 +11456,7 @@
       <c r="B332" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C332" s="8" t="s">
+      <c r="C332" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D332" s="0" t="s">
@@ -11487,7 +11491,7 @@
       <c r="B333" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C333" s="8" t="s">
+      <c r="C333" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D333" s="0" t="s">
@@ -11522,7 +11526,7 @@
       <c r="B334" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C334" s="8" t="s">
+      <c r="C334" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D334" s="0" t="s">
@@ -11557,7 +11561,7 @@
       <c r="B335" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C335" s="8" t="s">
+      <c r="C335" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D335" s="0" t="s">
@@ -11592,7 +11596,7 @@
       <c r="B336" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C336" s="8" t="s">
+      <c r="C336" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D336" s="0" t="s">
@@ -11627,7 +11631,7 @@
       <c r="B337" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C337" s="8" t="s">
+      <c r="C337" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D337" s="0" t="s">
@@ -11662,7 +11666,7 @@
       <c r="B338" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C338" s="8" t="s">
+      <c r="C338" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D338" s="0" t="s">
@@ -11697,7 +11701,7 @@
       <c r="B339" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C339" s="8" t="s">
+      <c r="C339" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D339" s="0" t="s">
@@ -11732,7 +11736,7 @@
       <c r="B340" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C340" s="8" t="s">
+      <c r="C340" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D340" s="0" t="s">
@@ -11767,7 +11771,7 @@
       <c r="B341" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C341" s="8" t="s">
+      <c r="C341" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D341" s="0" t="s">
@@ -11795,7 +11799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
         <v>11</v>
       </c>
@@ -11830,7 +11834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
         <v>11</v>
       </c>
@@ -11865,7 +11869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
         <v>11</v>
       </c>
@@ -11900,7 +11904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
         <v>11</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
         <v>11</v>
       </c>
@@ -11970,7 +11974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="s">
         <v>11</v>
       </c>
@@ -12005,7 +12009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
         <v>11</v>
       </c>
@@ -12040,7 +12044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
         <v>18</v>
       </c>
@@ -12075,7 +12079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
         <v>18</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
         <v>18</v>
       </c>
@@ -12145,7 +12149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
         <v>18</v>
       </c>
@@ -12180,7 +12184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
         <v>18</v>
       </c>
@@ -12215,7 +12219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
         <v>18</v>
       </c>
@@ -12250,7 +12254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
         <v>18</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
         <v>20</v>
       </c>
@@ -12320,7 +12324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
         <v>20</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
         <v>20</v>
       </c>
@@ -12390,7 +12394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
         <v>20</v>
       </c>
@@ -12425,7 +12429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
         <v>20</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
         <v>20</v>
       </c>
@@ -12495,7 +12499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
         <v>20</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
         <v>22</v>
       </c>
@@ -12565,7 +12569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
         <v>22</v>
       </c>
@@ -12600,7 +12604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
         <v>22</v>
       </c>
@@ -12635,7 +12639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
         <v>22</v>
       </c>
@@ -12670,7 +12674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
         <v>22</v>
       </c>
@@ -12705,7 +12709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
         <v>22</v>
       </c>
@@ -12740,7 +12744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
         <v>22</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
         <v>24</v>
       </c>
@@ -12810,7 +12814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
         <v>24</v>
       </c>
@@ -12845,7 +12849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
         <v>24</v>
       </c>
@@ -12880,7 +12884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
         <v>24</v>
       </c>
@@ -12915,7 +12919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
         <v>24</v>
       </c>
@@ -12950,7 +12954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
         <v>24</v>
       </c>
@@ -12985,7 +12989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
         <v>24</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
         <v>28</v>
       </c>
@@ -13055,7 +13059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
         <v>28</v>
       </c>
@@ -13090,7 +13094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
         <v>28</v>
       </c>
@@ -13125,7 +13129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
         <v>28</v>
       </c>
@@ -13160,7 +13164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
         <v>28</v>
       </c>
@@ -13195,7 +13199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
         <v>28</v>
       </c>
@@ -13230,7 +13234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
         <v>28</v>
       </c>
@@ -13265,7 +13269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
         <v>31</v>
       </c>
@@ -13300,7 +13304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
         <v>31</v>
       </c>
@@ -13335,7 +13339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
         <v>31</v>
       </c>
@@ -13370,7 +13374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
         <v>31</v>
       </c>
@@ -13405,7 +13409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
         <v>31</v>
       </c>
@@ -13440,7 +13444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
         <v>31</v>
       </c>
@@ -13475,7 +13479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
         <v>31</v>
       </c>
@@ -13510,7 +13514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
         <v>33</v>
       </c>
@@ -13545,7 +13549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
         <v>33</v>
       </c>
@@ -13580,7 +13584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
         <v>33</v>
       </c>
@@ -13615,7 +13619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
         <v>33</v>
       </c>
@@ -13650,7 +13654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
         <v>33</v>
       </c>
@@ -13685,7 +13689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
         <v>33</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
         <v>33</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
         <v>34</v>
       </c>
@@ -13790,7 +13794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>34</v>
       </c>
@@ -13825,7 +13829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="6" t="s">
         <v>34</v>
       </c>
@@ -13860,7 +13864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="6" t="s">
         <v>34</v>
       </c>
@@ -13895,7 +13899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>34</v>
       </c>
@@ -13930,7 +13934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
         <v>34</v>
       </c>
@@ -13965,7 +13969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
         <v>34</v>
       </c>
@@ -14000,14 +14004,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C405" s="4" t="s">
+      <c r="C405" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D405" s="0" t="s">
@@ -14035,14 +14039,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C406" s="4" t="s">
+      <c r="C406" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D406" s="0" t="s">
@@ -14070,14 +14074,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C407" s="4" t="s">
+      <c r="C407" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D407" s="0" t="s">
@@ -14105,14 +14109,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C408" s="4" t="s">
+      <c r="C408" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D408" s="0" t="s">
@@ -14140,14 +14144,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C409" s="4" t="s">
+      <c r="C409" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D409" s="0" t="s">
@@ -14175,14 +14179,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C410" s="4" t="s">
+      <c r="C410" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D410" s="0" t="s">
@@ -14210,14 +14214,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C411" s="4" t="s">
+      <c r="C411" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D411" s="0" t="s">
@@ -14245,14 +14249,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C412" s="4" t="s">
+      <c r="C412" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D412" s="0" t="s">
@@ -14280,14 +14284,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C413" s="4" t="s">
+      <c r="C413" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D413" s="0" t="s">
@@ -14315,14 +14319,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C414" s="4" t="s">
+      <c r="C414" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D414" s="0" t="s">
@@ -14350,14 +14354,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C415" s="4" t="s">
+      <c r="C415" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D415" s="0" t="s">
@@ -14385,14 +14389,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C416" s="4" t="s">
+      <c r="C416" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D416" s="0" t="s">
@@ -14420,14 +14424,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C417" s="4" t="s">
+      <c r="C417" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D417" s="0" t="s">
@@ -14455,14 +14459,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C418" s="4" t="s">
+      <c r="C418" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D418" s="0" t="s">
@@ -14490,14 +14494,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C419" s="4" t="s">
+      <c r="C419" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D419" s="0" t="s">
@@ -14525,14 +14529,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C420" s="4" t="s">
+      <c r="C420" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D420" s="0" t="s">
@@ -14560,14 +14564,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="C421" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D421" s="0" t="s">
@@ -14595,14 +14599,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C422" s="4" t="s">
+      <c r="C422" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D422" s="0" t="s">
@@ -14630,14 +14634,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C423" s="4" t="s">
+      <c r="C423" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D423" s="0" t="s">
@@ -14665,14 +14669,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C424" s="4" t="s">
+      <c r="C424" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D424" s="0" t="s">
@@ -14700,14 +14704,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C425" s="4" t="s">
+      <c r="C425" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D425" s="0" t="s">
@@ -14735,14 +14739,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C426" s="4" t="s">
+      <c r="C426" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D426" s="0" t="s">
@@ -14770,14 +14774,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C427" s="4" t="s">
+      <c r="C427" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D427" s="0" t="s">
@@ -14805,14 +14809,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C428" s="4" t="s">
+      <c r="C428" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D428" s="0" t="s">
@@ -14840,14 +14844,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C429" s="4" t="s">
+      <c r="C429" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D429" s="0" t="s">
@@ -14875,14 +14879,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C430" s="4" t="s">
+      <c r="C430" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D430" s="0" t="s">
@@ -14910,14 +14914,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C431" s="4" t="s">
+      <c r="C431" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D431" s="0" t="s">
@@ -14945,14 +14949,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C432" s="4" t="s">
+      <c r="C432" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D432" s="0" t="s">
@@ -14980,14 +14984,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C433" s="4" t="s">
+      <c r="C433" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D433" s="0" t="s">
@@ -15015,14 +15019,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C434" s="4" t="s">
+      <c r="C434" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D434" s="0" t="s">
@@ -15050,14 +15054,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C435" s="4" t="s">
+      <c r="C435" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D435" s="0" t="s">
@@ -15085,14 +15089,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C436" s="4" t="s">
+      <c r="C436" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D436" s="0" t="s">
@@ -15120,14 +15124,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C437" s="4" t="s">
+      <c r="C437" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D437" s="0" t="s">
@@ -15155,14 +15159,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C438" s="4" t="s">
+      <c r="C438" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D438" s="0" t="s">
@@ -15190,14 +15194,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C439" s="4" t="s">
+      <c r="C439" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D439" s="0" t="s">
@@ -15225,14 +15229,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C440" s="4" t="s">
+      <c r="C440" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D440" s="0" t="s">
@@ -15260,14 +15264,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C441" s="4" t="s">
+      <c r="C441" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D441" s="0" t="s">
@@ -15295,14 +15299,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C442" s="4" t="s">
+      <c r="C442" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D442" s="0" t="s">
@@ -15330,14 +15334,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C443" s="4" t="s">
+      <c r="C443" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D443" s="0" t="s">
@@ -15365,14 +15369,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C444" s="4" t="s">
+      <c r="C444" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D444" s="0" t="s">
@@ -15400,14 +15404,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C445" s="4" t="s">
+      <c r="C445" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D445" s="0" t="s">
@@ -15435,14 +15439,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C446" s="4" t="s">
+      <c r="C446" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D446" s="0" t="s">
@@ -15470,14 +15474,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C447" s="4" t="s">
+      <c r="C447" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D447" s="0" t="s">
@@ -15505,14 +15509,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C448" s="4" t="s">
+      <c r="C448" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D448" s="0" t="s">
@@ -15540,14 +15544,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C449" s="4" t="s">
+      <c r="C449" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D449" s="0" t="s">
@@ -15575,14 +15579,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C450" s="4" t="s">
+      <c r="C450" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D450" s="0" t="s">
@@ -15610,14 +15614,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C451" s="4" t="s">
+      <c r="C451" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D451" s="0" t="s">
@@ -15645,14 +15649,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C452" s="4" t="s">
+      <c r="C452" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D452" s="0" t="s">
@@ -15680,14 +15684,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C453" s="4" t="s">
+      <c r="C453" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D453" s="0" t="s">
@@ -15722,7 +15726,7 @@
       <c r="B454" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C454" s="8" t="s">
+      <c r="C454" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D454" s="0" t="s">
@@ -15757,7 +15761,7 @@
       <c r="B455" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C455" s="8" t="s">
+      <c r="C455" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D455" s="0" t="s">
@@ -15792,7 +15796,7 @@
       <c r="B456" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C456" s="8" t="s">
+      <c r="C456" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D456" s="0" t="s">
@@ -15827,7 +15831,7 @@
       <c r="B457" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C457" s="8" t="s">
+      <c r="C457" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D457" s="0" t="s">
@@ -15862,7 +15866,7 @@
       <c r="B458" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C458" s="8" t="s">
+      <c r="C458" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D458" s="0" t="s">
@@ -15897,7 +15901,7 @@
       <c r="B459" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C459" s="8" t="s">
+      <c r="C459" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D459" s="0" t="s">
@@ -15932,7 +15936,7 @@
       <c r="B460" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C460" s="8" t="s">
+      <c r="C460" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D460" s="0" t="s">
@@ -15961,13 +15965,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K460">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Bronze"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K460"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
